--- a/SQA/q3-q4/q3-q4.xlsx
+++ b/SQA/q3-q4/q3-q4.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Repositories\waseda\SQA\q3-q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A72D8B-2E09-4C1D-8FF3-D384B7579CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6B842-B80D-4982-A1BE-6B0900BC284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
     <sheet name="Q4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>X</t>
   </si>
@@ -51,6 +50,24 @@
   </si>
   <si>
     <t>RESULT</t>
+  </si>
+  <si>
+    <t>Statement coverage</t>
+  </si>
+  <si>
+    <t>Decision coverage</t>
+  </si>
+  <si>
+    <t>Condition coverage</t>
+  </si>
+  <si>
+    <t>Condition/decision coverage</t>
+  </si>
+  <si>
+    <t>Multiple Condition Coverage</t>
+  </si>
+  <si>
+    <t>Modified Condition Decision Coverage</t>
   </si>
 </sst>
 </file>
@@ -109,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,7 +137,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,19 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A88C8-D6F1-43B8-B31D-0542A8FC908C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -460,11 +486,17 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -477,9 +509,19 @@
       <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="7"/>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -492,9 +534,21 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -507,90 +561,117 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="7"/>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -600,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319C11C0-3228-4F26-AA5D-A2331D32007C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/SQA/q3-q4/q3-q4.xlsx
+++ b/SQA/q3-q4/q3-q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Repositories\waseda\SQA\q3-q4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Repositories\Waseda-Code\SQA\q3-q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6B842-B80D-4982-A1BE-6B0900BC284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85DE4DB-9731-45DF-A359-91FAEEF578DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,13 +138,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,18 +461,18 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -486,17 +485,17 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -509,7 +508,6 @@
       <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
@@ -521,7 +519,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -534,7 +532,6 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
@@ -548,7 +545,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -561,7 +558,6 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
@@ -575,7 +571,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -588,24 +584,30 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
@@ -615,14 +617,13 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
@@ -632,41 +633,37 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -685,12 +682,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -704,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -712,7 +709,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -720,7 +717,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -728,7 +725,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -736,7 +733,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -744,7 +741,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -752,7 +749,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -760,7 +757,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -768,7 +765,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -776,7 +773,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>

--- a/SQA/q3-q4/q3-q4.xlsx
+++ b/SQA/q3-q4/q3-q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Repositories\Waseda-Code\SQA\q3-q4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Repositories\waseda\SQA\q3-q4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85DE4DB-9731-45DF-A359-91FAEEF578DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250AAD51-9E2F-4C68-99C0-972026F29739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6AA58FD1-BD62-449C-AA66-01A78F488493}"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>X</t>
   </si>
@@ -68,6 +68,66 @@
   </si>
   <si>
     <t>Modified Condition Decision Coverage</t>
+  </si>
+  <si>
+    <t>Equivalence partitioning</t>
+  </si>
+  <si>
+    <t>Boundary value analysis</t>
+  </si>
+  <si>
+    <t>Error guessing</t>
+  </si>
+  <si>
+    <t>Domain testing</t>
+  </si>
+  <si>
+    <t>–2147483648</t>
+  </si>
+  <si>
+    <t>1.175494351 E - 38</t>
+  </si>
+  <si>
+    <t>3.402823466 E + 38</t>
+  </si>
+  <si>
+    <t>&lt;=36</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>&gt;36</t>
+  </si>
+  <si>
+    <t>&gt;4,0</t>
+  </si>
+  <si>
+    <t>&lt;=4,0</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>&gt;=35</t>
+  </si>
+  <si>
+    <t>&gt;=3,6</t>
+  </si>
+  <si>
+    <t>&lt;35</t>
+  </si>
+  <si>
+    <t>&lt;3,6</t>
   </si>
 </sst>
 </file>
@@ -99,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,11 +182,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,7 +238,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,19 +564,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6A88C8-D6F1-43B8-B31D-0542A8FC908C}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -486,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -519,7 +623,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -545,7 +649,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -571,7 +675,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -601,7 +705,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -611,13 +715,21 @@
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -627,13 +739,21 @@
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -641,7 +761,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -649,7 +769,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -657,7 +777,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -667,7 +787,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -676,18 +796,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319C11C0-3228-4F26-AA5D-A2331D32007C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="33.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -700,88 +824,223 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>